--- a/Daily_Scrum.xlsx
+++ b/Daily_Scrum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS00457\Desktop\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BS00457\Desktop\Daily_Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017CC7FA-AB9D-4FC0-A804-7D03488911D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F618E6B-8C56-4FB0-90B4-A77182AFF55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4675A514-552D-48D1-A54E-E5E156076A2B}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
@@ -667,7 +667,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
